--- a/biology/Zoologie/Gigantorhynchus/Gigantorhynchus.xlsx
+++ b/biology/Zoologie/Gigantorhynchus/Gigantorhynchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigantorhynchus est un genre d'acanthocéphales de la famille des Gigantorhynchidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud[1] sauf Gigantorhynchus pesteri d'Afrique australe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud sauf Gigantorhynchus pesteri d'Afrique australe.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corps de grande taille, long et mince, avec une esquisse de pseudo-segmentation ou, tout au moins, d’annulation. Proboscis assez régulièrement cylindrique ou tronc-conique, portant une couronne apicale de forts crochets à racines recourbées, le reste de la trompe étant garni de très petites épines droites et touffues, dépourvues de racines. Réceptacle divisé en deux portions, une antérieure à paroi épaisse, allant en s’amincissant vers l’arrière, et une postérieure. Lemnisci filamenteux, très longs. Organes génitaux mâles disposés dans la moitié postérieure du tronc. Embryophores à coque compacte et granuleuse[1].
-Au stade adulte, ils parasitent le tube digestif des édentés xénarthres ou des opossums[1] sauf Gigantorhynchus pesteri de babouins.
-L’association est certainement ancienne puisque les Xenarthra sont connus du Pléistocène[1].
-Les hôtes intermédiaires sont très vraisemblablement des termites[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corps de grande taille, long et mince, avec une esquisse de pseudo-segmentation ou, tout au moins, d’annulation. Proboscis assez régulièrement cylindrique ou tronc-conique, portant une couronne apicale de forts crochets à racines recourbées, le reste de la trompe étant garni de très petites épines droites et touffues, dépourvues de racines. Réceptacle divisé en deux portions, une antérieure à paroi épaisse, allant en s’amincissant vers l’arrière, et une postérieure. Lemnisci filamenteux, très longs. Organes génitaux mâles disposés dans la moitié postérieure du tronc. Embryophores à coque compacte et granuleuse.
+Au stade adulte, ils parasitent le tube digestif des édentés xénarthres ou des opossums sauf Gigantorhynchus pesteri de babouins.
+L’association est certainement ancienne puisque les Xenarthra sont connus du Pléistocène.
+Les hôtes intermédiaires sont très vraisemblablement des termites.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 janvier 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 janvier 2020) :
 Gigantorhynchus echinodiscus (Diesing, 1851)
 Gigantorhynchus lopezneyrai Diaz-Ungria, 1958
 Gigantorhynchus lutzi Machado, 1941
@@ -612,10 +630,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Otto Hamann (d) en 1892.
-Sapelnikov et Malygina en 1977[3] ont décrit un genre de brachiopodes de ce nom, préoccupé, il est renommé Alairhynchus[4].
+Sapelnikov et Malygina en 1977 ont décrit un genre de brachiopodes de ce nom, préoccupé, il est renommé Alairhynchus.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Hamann, 1892 : Das system der Acanthocephalen. Zoologischer Anzeiger, vol. 15, p. 195-197 (texte intégral).</t>
         </is>
